--- a/multip-Tab.xlsx
+++ b/multip-Tab.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pratice_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850D61AA-6E72-40EA-8FF5-6CF0757B2220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B804B4-7D56-4083-BFF1-4848E46F1A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="9990" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,31 +33,23 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>#SPILL!</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +57,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +79,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -92,30 +94,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -131,20 +135,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{994EB76D-E2EF-40B9-A139-5D54E761B574}" name="Table1" displayName="Table1" ref="H1:J16" totalsRowShown="0">
+  <autoFilter ref="H1:J16" xr:uid="{994EB76D-E2EF-40B9-A139-5D54E761B574}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{16650D67-F49A-43B5-A890-D124B2666380}" name="#SPILL!"/>
+    <tableColumn id="2" xr3:uid="{D168A338-F5DF-4637-B0F4-F10E21BC0211}" name="Column1"/>
+    <tableColumn id="3" xr3:uid="{4411AE05-4B92-4CD3-8FBC-E272BC1ABDC0}" name="Column2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -410,30 +410,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:J16"/>
+  <dimension ref="D1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="9.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="H1" t="str" cm="1">
-        <f t="array" ref="H1:J16">[1]!Table1[#All]</f>
-        <v>Column1</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Column2</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Column3</v>
-      </c>
-    </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>1</v>
       </c>
@@ -441,17 +444,8 @@
         <f>D2*D1</f>
         <v>2</v>
       </c>
-      <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <f>1+D2</f>
         <v>2</v>
@@ -460,17 +454,8 @@
         <f t="shared" ref="E3:E11" si="0">D3*D2</f>
         <v>2</v>
       </c>
-      <c r="H3">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>21</v>
-      </c>
-      <c r="J3">
-        <v>-958.65</v>
-      </c>
-    </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
         <f t="shared" ref="D4:D11" si="1">1+D3</f>
         <v>3</v>
@@ -479,74 +464,38 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="H4">
+    </row>
+    <row r="5" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="I4">
-        <v>104.2</v>
-      </c>
-      <c r="J4">
-        <v>-5943.63</v>
-      </c>
-    </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="E5" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="H5">
-        <v>6</v>
-      </c>
-      <c r="I5">
-        <v>536.84</v>
-      </c>
-      <c r="J5">
-        <v>-31865.526000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D6" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H6">
-        <v>31</v>
-      </c>
-      <c r="I6">
-        <v>2786.5680000000002</v>
-      </c>
-      <c r="J6">
-        <v>-166659.38520000002</v>
-      </c>
-    </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>14485.153600000001</v>
-      </c>
-      <c r="J7">
-        <v>-867587.45304000017</v>
-      </c>
-    </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -555,17 +504,8 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>75317.798720000006</v>
-      </c>
-      <c r="J8">
-        <v>-4512413.4058080018</v>
-      </c>
-    </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -574,17 +514,8 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="H9">
-        <v>656</v>
-      </c>
-      <c r="I9">
-        <v>391647.55334400007</v>
-      </c>
-      <c r="J9">
-        <v>-23465508.360201608</v>
-      </c>
-    </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -593,17 +524,8 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="H10">
-        <v>8</v>
-      </c>
-      <c r="I10">
-        <v>2036562.2773888004</v>
-      </c>
-      <c r="J10">
-        <v>-122021602.12304838</v>
-      </c>
-    </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -612,72 +534,12 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>10590118.842421763</v>
-      </c>
-      <c r="J11">
-        <v>-634513289.68985152</v>
-      </c>
-    </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H12">
-        <v>3</v>
-      </c>
-      <c r="I12">
-        <v>55068612.980593167</v>
-      </c>
-      <c r="J12">
-        <v>-3299470065.0372281</v>
-      </c>
-    </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H13">
-        <v>65</v>
-      </c>
-      <c r="I13">
-        <v>286356782.49908447</v>
-      </c>
-      <c r="J13">
-        <v>-17157245296.843586</v>
-      </c>
-    </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H14">
-        <v>623</v>
-      </c>
-      <c r="I14">
-        <v>1489055263.9952393</v>
-      </c>
-      <c r="J14">
-        <v>-89217676502.236649</v>
-      </c>
-    </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H15">
-        <v>323</v>
-      </c>
-      <c r="I15">
-        <v>7743087367.7752447</v>
-      </c>
-      <c r="J15">
-        <v>-463931918770.28064</v>
-      </c>
-    </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>40264054312.431274</v>
-      </c>
-      <c r="J16">
-        <v>-2412445978564.1094</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/multip-Tab.xlsx
+++ b/multip-Tab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pratice_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B804B4-7D56-4083-BFF1-4848E46F1A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF235C-2927-4F5A-88E6-590ABBDB6442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -410,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D1:J12"/>
+  <dimension ref="D1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,7 @@
     <col min="9" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="1">
         <v>2</v>
       </c>
@@ -435,8 +435,11 @@
       <c r="J1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D2" s="2">
         <v>1</v>
       </c>
@@ -444,8 +447,15 @@
         <f>D2*D1</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <f>L2*L1</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <f>1+D2</f>
         <v>2</v>
@@ -454,88 +464,160 @@
         <f t="shared" ref="E3:E11" si="0">D3*D2</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3" s="2">
+        <f>1+L2</f>
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" ref="M3:M11" si="1">L3*L2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="2">
-        <f t="shared" ref="D4:D11" si="1">1+D3</f>
+        <f t="shared" ref="D4:D11" si="2">1+D3</f>
         <v>3</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L11" si="3">1+L3</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L7" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M7" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-    </row>
-    <row r="9" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="10" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="2">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="11" spans="4:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="4:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="L11" s="2">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="M11" s="2">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/multip-Tab.xlsx
+++ b/multip-Tab.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\pratice_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EF235C-2927-4F5A-88E6-590ABBDB6442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8733F26-C31F-4D4E-A09A-FF5E0CFBB5B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +83,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -113,10 +120,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Check Cell" xfId="1" builtinId="23"/>
@@ -412,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -624,4 +632,151 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A5CB61D-E810-439D-BDE3-CA29475E942B}">
+  <dimension ref="E4:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="7:11" x14ac:dyDescent="0.25">
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>